--- a/tablas/base futbol.xlsx
+++ b/tablas/base futbol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="569">
   <si>
     <t xml:space="preserve">Tabla 1</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundación</t>
+    <t xml:space="preserve">Fundacion</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre corto</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Rec. Huelva</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sevilla Fútbol Club</t>
+    <t xml:space="preserve"> Sevilla Futbol Club</t>
   </si>
   <si>
     <t xml:space="preserve">Sevilla</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Ath. Bilbao</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fútbol Club Barcelona</t>
+    <t xml:space="preserve"> Futbol Club Barcelona</t>
   </si>
   <si>
     <t xml:space="preserve">Barcelona</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">1899</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Club Deportivo Español</t>
+    <t xml:space="preserve"> Real Club Deportivo Espanol</t>
   </si>
   <si>
     <t xml:space="preserve">1900</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Espanyol</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Madrid Club de Fútbol</t>
+    <t xml:space="preserve"> Real Madrid Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Madrid</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">1901</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club de Fútbol Badalona</t>
+    <t xml:space="preserve"> Club de Futbol Badalona</t>
   </si>
   <si>
     <t xml:space="preserve">Badalona</t>
@@ -112,16 +112,16 @@
     <t xml:space="preserve">1903</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Atlético de Madrid</t>
+    <t xml:space="preserve"> Club Atletico de Madrid</t>
   </si>
   <si>
     <t xml:space="preserve">At. Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Avilés Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avilés</t>
+    <t xml:space="preserve"> Real Aviles Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviles</t>
   </si>
   <si>
     <t xml:space="preserve"> Futbol Club Vilafranca</t>
@@ -136,22 +136,22 @@
     <t xml:space="preserve">Villafranca</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Sporting de Gijón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gijón</t>
+    <t xml:space="preserve"> Real Sporting de Gijon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijon</t>
   </si>
   <si>
     <t xml:space="preserve">1905</t>
   </si>
   <si>
-    <t xml:space="preserve">Sporting Gijón</t>
+    <t xml:space="preserve">Sporting Gijon</t>
   </si>
   <si>
     <t xml:space="preserve"> Sociedad Deportiva Beasain</t>
   </si>
   <si>
-    <t xml:space="preserve">Beasáin</t>
+    <t xml:space="preserve">Beasain</t>
   </si>
   <si>
     <t xml:space="preserve">Besain</t>
@@ -175,13 +175,13 @@
     <t xml:space="preserve">Carabanchel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Club Deportivo de La Coruña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Coruña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dptivo. Coruña</t>
+    <t xml:space="preserve"> Real Club Deportivo de La Coruna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Coruna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dptivo. Coruna</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Esportiu Europa</t>
@@ -193,19 +193,19 @@
     <t xml:space="preserve">Europa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Betis Balompié</t>
+    <t xml:space="preserve"> Real Betis Balompie</t>
   </si>
   <si>
     <t xml:space="preserve">Betis</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gimnástica de Torrelavega</t>
+    <t xml:space="preserve"> Gimnastica de Torrelavega</t>
   </si>
   <si>
     <t xml:space="preserve">Torrelavega</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Murcia Club de Fútbol</t>
+    <t xml:space="preserve"> Real Murcia Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Murcia</t>
@@ -214,10 +214,10 @@
     <t xml:space="preserve">1908</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Sociedad de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Sebastián</t>
+    <t xml:space="preserve"> Real Sociedad de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Sebastian</t>
   </si>
   <si>
     <t xml:space="preserve">1909</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Portugalete</t>
   </si>
   <si>
-    <t xml:space="preserve"> Levante Unión Deportiva</t>
+    <t xml:space="preserve"> Levante Union Deportiva</t>
   </si>
   <si>
     <t xml:space="preserve">Valencia</t>
@@ -256,16 +256,16 @@
     <t xml:space="preserve">Getxo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Algeciras Club de Fútbol</t>
+    <t xml:space="preserve"> Algeciras Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Algeciras</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cádiz Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cádiz</t>
+    <t xml:space="preserve"> Cadiz Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadiz</t>
   </si>
   <si>
     <t xml:space="preserve">1910</t>
@@ -280,25 +280,25 @@
     <t xml:space="preserve">1912</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Titánico</t>
+    <t xml:space="preserve"> Real Titanico</t>
   </si>
   <si>
     <t xml:space="preserve">Pola de Laviana</t>
   </si>
   <si>
-    <t xml:space="preserve">Titánico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Balompédica Linense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Línea</t>
+    <t xml:space="preserve">Titanico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Balompedica Linense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Linea</t>
   </si>
   <si>
     <t xml:space="preserve">Linense</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unión Deportiva Icodense</t>
+    <t xml:space="preserve"> Union Deportiva Icodense</t>
   </si>
   <si>
     <t xml:space="preserve">Tenerife</t>
@@ -355,10 +355,10 @@
     <t xml:space="preserve">1914</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Club Deportivo de La Coruña "B"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dptivo. Coruña B</t>
+    <t xml:space="preserve"> Real Club Deportivo de La Coruna "B"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dptivo. Coruna B</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Gimnàstic de Tarragona</t>
@@ -370,19 +370,19 @@
     <t xml:space="preserve">Gimn. Tarragona</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hércules de Alicante Club de Fútbol</t>
+    <t xml:space="preserve"> Hercules de Alicante Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Alicante</t>
   </si>
   <si>
-    <t xml:space="preserve">Hércules</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club Deportivo Cayón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa María de Cayón</t>
+    <t xml:space="preserve">Hercules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Deportivo Cayon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Maria de Cayon</t>
   </si>
   <si>
     <t xml:space="preserve">1915</t>
@@ -391,19 +391,19 @@
     <t xml:space="preserve">Cayon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Unión de Tenerife Club de Fútbol</t>
+    <t xml:space="preserve"> Real Union de Tenerife Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">R.U. Tenerife</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Unión Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irún</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Unión</t>
+    <t xml:space="preserve"> Real Union Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Union</t>
   </si>
   <si>
     <t xml:space="preserve"> Sociedad Deportiva Erandio Club</t>
@@ -454,25 +454,25 @@
     <t xml:space="preserve">Contestano</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pumarín Club de Futbol</t>
+    <t xml:space="preserve"> Pumarin Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Oviedo</t>
   </si>
   <si>
-    <t xml:space="preserve">Pumarín</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deportiva Piloñesa</t>
+    <t xml:space="preserve">Pumarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportiva Pilonesa</t>
   </si>
   <si>
     <t xml:space="preserve">Infiesto</t>
   </si>
   <si>
-    <t xml:space="preserve">Piloñesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barakaldo Club de Fútbol</t>
+    <t xml:space="preserve">Pilonesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barakaldo Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Baracaldo</t>
@@ -484,9 +484,6 @@
     <t xml:space="preserve"> Club Deportivo Elgoibar</t>
   </si>
   <si>
-    <t xml:space="preserve">Elgóibar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elgoibar</t>
   </si>
   <si>
@@ -502,7 +499,7 @@
     <t xml:space="preserve">Caudal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Santutxu Fútbol Club</t>
+    <t xml:space="preserve"> Santutxu Futbol Club</t>
   </si>
   <si>
     <t xml:space="preserve">Santutxu</t>
@@ -532,7 +529,7 @@
     <t xml:space="preserve">Acero</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cartagena Fútbol Club</t>
+    <t xml:space="preserve"> Cartagena Futbol Club</t>
   </si>
   <si>
     <t xml:space="preserve">Cartagena</t>
@@ -541,7 +538,7 @@
     <t xml:space="preserve">Cartagena F.C.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unió Esportiva Figueres</t>
+    <t xml:space="preserve"> Unio Esportiva Figueres</t>
   </si>
   <si>
     <t xml:space="preserve">Figueras</t>
@@ -550,16 +547,16 @@
     <t xml:space="preserve">Figueres</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Polideportivo Cacereño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cáceres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cacereño</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Valencia Club de Fútbol</t>
+    <t xml:space="preserve"> Club Polideportivo Cacereno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caceres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cacereno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valencia Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve"> Racing Club de Ferrol</t>
@@ -568,7 +565,7 @@
     <t xml:space="preserve">Ferrol</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Deportivo Atlético Baleares</t>
+    <t xml:space="preserve"> Club Deportivo Atletico Baleares</t>
   </si>
   <si>
     <t xml:space="preserve">1920</t>
@@ -583,7 +580,7 @@
     <t xml:space="preserve">Capellades</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Atlético Osasuna</t>
+    <t xml:space="preserve"> Club Atletico Osasuna</t>
   </si>
   <si>
     <t xml:space="preserve">Pamplona</t>
@@ -604,22 +601,22 @@
     <t xml:space="preserve">Eldense</t>
   </si>
   <si>
-    <t xml:space="preserve"> Deportivo Alavés</t>
+    <t xml:space="preserve"> Deportivo Alaves</t>
   </si>
   <si>
     <t xml:space="preserve">Vitoria</t>
   </si>
   <si>
-    <t xml:space="preserve">Alavés</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club Deportivo Castellón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castellón de la Plana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castellón</t>
+    <t xml:space="preserve">Alaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Deportivo Castellon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castellon de la Plana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castellon</t>
   </si>
   <si>
     <t xml:space="preserve"> Sociedad Deportiva Ponferradina</t>
@@ -631,7 +628,7 @@
     <t xml:space="preserve">Ponferradina</t>
   </si>
   <si>
-    <t xml:space="preserve"> Elche Club de Fútbol</t>
+    <t xml:space="preserve"> Elche Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Elche</t>
@@ -655,19 +652,19 @@
     <t xml:space="preserve">Mensajero</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tolosa Club de Fútbol</t>
+    <t xml:space="preserve"> Tolosa Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Tolosa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vélez Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vélez-Málaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vélez</t>
+    <t xml:space="preserve"> Velez Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velez-Malaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velez</t>
   </si>
   <si>
     <t xml:space="preserve"> Sociedad Deportiva Gernika Club</t>
@@ -688,7 +685,7 @@
     <t xml:space="preserve"> Cultural y Deportiva Leonesa</t>
   </si>
   <si>
-    <t xml:space="preserve">León</t>
+    <t xml:space="preserve">Leon</t>
   </si>
   <si>
     <t xml:space="preserve">Cult. Leonesa</t>
@@ -721,7 +718,7 @@
     <t xml:space="preserve">Izarra</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unió Esportiva Sant Andreu</t>
+    <t xml:space="preserve"> Unio Esportiva Sant Andreu</t>
   </si>
   <si>
     <t xml:space="preserve">1925</t>
@@ -745,7 +742,7 @@
     <t xml:space="preserve">1926</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Deportivo Mirandés</t>
+    <t xml:space="preserve"> Club Deportivo Mirandes</t>
   </si>
   <si>
     <t xml:space="preserve">Miranda de Ebro</t>
@@ -754,10 +751,10 @@
     <t xml:space="preserve">1927</t>
   </si>
   <si>
-    <t xml:space="preserve">Mirandés</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Valladolid Club de Fútbol</t>
+    <t xml:space="preserve">Mirandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Valladolid Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Valladolid</t>
@@ -766,10 +763,10 @@
     <t xml:space="preserve">1928</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Deportivo Leganés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leganés</t>
+    <t xml:space="preserve"> Club Deportivo Leganes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leganes</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Deportivo Alcoyano</t>
@@ -781,34 +778,34 @@
     <t xml:space="preserve">Alcoyano</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carrión Balompié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrión de los Céspedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrión </t>
+    <t xml:space="preserve"> Carrion Balompie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrion de los Cespedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrion </t>
   </si>
   <si>
     <t xml:space="preserve"> Racing Club Portuense</t>
   </si>
   <si>
-    <t xml:space="preserve">El Puerto de Santa María</t>
+    <t xml:space="preserve">El Puerto de Santa Maria</t>
   </si>
   <si>
     <t xml:space="preserve">Portuense</t>
   </si>
   <si>
-    <t xml:space="preserve"> Calavera Club de Fútbol</t>
+    <t xml:space="preserve"> Calavera Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Calavera</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Jaén Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaén</t>
+    <t xml:space="preserve"> Real Jaen Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaen</t>
   </si>
   <si>
     <t xml:space="preserve">1929</t>
@@ -832,13 +829,13 @@
     <t xml:space="preserve">Girona</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Madrid Castilla Club de Fútbol</t>
+    <t xml:space="preserve"> Real Madrid Castilla Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Real Madrid B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Granada Club de Fútbol</t>
+    <t xml:space="preserve"> Granada Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Granada</t>
@@ -847,7 +844,7 @@
     <t xml:space="preserve">1931</t>
   </si>
   <si>
-    <t xml:space="preserve"> Puerto Real Club de Fútbol</t>
+    <t xml:space="preserve"> Puerto Real Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Puerto Real</t>
@@ -880,7 +877,7 @@
     <t xml:space="preserve">Marino</t>
   </si>
   <si>
-    <t xml:space="preserve"> Albacete Balompié</t>
+    <t xml:space="preserve"> Albacete Balompie</t>
   </si>
   <si>
     <t xml:space="preserve">Albacete</t>
@@ -889,7 +886,7 @@
     <t xml:space="preserve">1940</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pontevedra Club de Fútbol</t>
+    <t xml:space="preserve"> Pontevedra Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Pontevedra</t>
@@ -901,13 +898,13 @@
     <t xml:space="preserve"> Sociedad Deportiva Eibar</t>
   </si>
   <si>
-    <t xml:space="preserve">Éibar</t>
+    <t xml:space="preserve">Eibar</t>
   </si>
   <si>
     <t xml:space="preserve">1943</t>
   </si>
   <si>
-    <t xml:space="preserve"> Valencia Club de Fútbol Mestalla</t>
+    <t xml:space="preserve"> Valencia Club de Futbol Mestalla</t>
   </si>
   <si>
     <t xml:space="preserve">Paterna</t>
@@ -931,7 +928,7 @@
     <t xml:space="preserve">Numancia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Villarreal Club de Fútbol</t>
+    <t xml:space="preserve"> Villarreal Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Villarreal</t>
@@ -970,16 +967,16 @@
     <t xml:space="preserve">1948</t>
   </si>
   <si>
-    <t xml:space="preserve"> Málaga Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Málaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Málaga (C.D.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unión Deportiva Las Palmas</t>
+    <t xml:space="preserve"> Malaga Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaga (C.D.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Union Deportiva Las Palmas</t>
   </si>
   <si>
     <t xml:space="preserve">Las Palmas</t>
@@ -988,7 +985,7 @@
     <t xml:space="preserve">1949</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sevilla Atlético Club</t>
+    <t xml:space="preserve"> Sevilla Atletico Club</t>
   </si>
   <si>
     <t xml:space="preserve">1950</t>
@@ -1006,22 +1003,22 @@
     <t xml:space="preserve">1953</t>
   </si>
   <si>
-    <t xml:space="preserve"> Córdoba Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba</t>
+    <t xml:space="preserve"> Cordoba Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordoba</t>
   </si>
   <si>
     <t xml:space="preserve">1954</t>
   </si>
   <si>
-    <t xml:space="preserve"> Palamós Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palamós</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club Atlético de Ceuta</t>
+    <t xml:space="preserve"> Palamos Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palamos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Atletico de Ceuta</t>
   </si>
   <si>
     <t xml:space="preserve">Ceuta</t>
@@ -1039,7 +1036,7 @@
     <t xml:space="preserve">1960</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unión Popular de Langreo</t>
+    <t xml:space="preserve"> Union Popular de Langreo</t>
   </si>
   <si>
     <t xml:space="preserve">Langreo</t>
@@ -1048,7 +1045,7 @@
     <t xml:space="preserve">1961</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Atlético de Madrid "B"</t>
+    <t xml:space="preserve"> Club Atletico de Madrid "B"</t>
   </si>
   <si>
     <t xml:space="preserve">Majadahonda</t>
@@ -1072,19 +1069,19 @@
     <t xml:space="preserve">Ath. Bilbao B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unión Deportiva Logroñés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logroño</t>
+    <t xml:space="preserve"> Union Deportiva Logrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logrono</t>
   </si>
   <si>
     <t xml:space="preserve">1967</t>
   </si>
   <si>
-    <t xml:space="preserve">Logroñés (U.D.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fútbol Club Barcelona "B"</t>
+    <t xml:space="preserve">Logrones (U.D.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Futbol Club Barcelona "B"</t>
   </si>
   <si>
     <t xml:space="preserve">1970</t>
@@ -1093,16 +1090,16 @@
     <t xml:space="preserve">Barcelona B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Agrupación Deportiva Alcorcón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcorcón</t>
+    <t xml:space="preserve"> Agrupacion Deportiva Alcorcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcorcon</t>
   </si>
   <si>
     <t xml:space="preserve">1971</t>
   </si>
   <si>
-    <t xml:space="preserve"> Montilla Club de Fútbol</t>
+    <t xml:space="preserve"> Montilla Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Montilla</t>
@@ -1111,7 +1108,7 @@
     <t xml:space="preserve">1973</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club de Fútbol Rayo Majadahonda</t>
+    <t xml:space="preserve"> Club de Futbol Rayo Majadahonda</t>
   </si>
   <si>
     <t xml:space="preserve">1976</t>
@@ -1120,7 +1117,7 @@
     <t xml:space="preserve">Rayo Majadahonda</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alboraya Unión Deportiva</t>
+    <t xml:space="preserve"> Alboraya Union Deportiva</t>
   </si>
   <si>
     <t xml:space="preserve">Alboraya</t>
@@ -1129,7 +1126,7 @@
     <t xml:space="preserve">1978</t>
   </si>
   <si>
-    <t xml:space="preserve"> Getafe Club de Fútbol</t>
+    <t xml:space="preserve"> Getafe Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Getafe</t>
@@ -1138,13 +1135,13 @@
     <t xml:space="preserve">1983</t>
   </si>
   <si>
-    <t xml:space="preserve"> Getafe Club de Fútbol "B"</t>
+    <t xml:space="preserve"> Getafe Club de Futbol "B"</t>
   </si>
   <si>
     <t xml:space="preserve">Getafe B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Burgos Club de Fútbol</t>
+    <t xml:space="preserve"> Real Burgos Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Burgos</t>
@@ -1153,16 +1150,16 @@
     <t xml:space="preserve">Burgos (Real)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unión Deportiva Almería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almería</t>
+    <t xml:space="preserve"> Union Deportiva Almeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almeria</t>
   </si>
   <si>
     <t xml:space="preserve">1989</t>
   </si>
   <si>
-    <t xml:space="preserve"> Burgos Club de Fútbol</t>
+    <t xml:space="preserve"> Burgos Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">1994</t>
@@ -1171,7 +1168,7 @@
     <t xml:space="preserve">Burgos (C.F.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fútbol Club Cartagena</t>
+    <t xml:space="preserve"> Futbol Club Cartagena</t>
   </si>
   <si>
     <t xml:space="preserve">1995</t>
@@ -1189,7 +1186,7 @@
     <t xml:space="preserve">Sestao River</t>
   </si>
   <si>
-    <t xml:space="preserve"> Agrupación Deportiva Alcorcón "B"</t>
+    <t xml:space="preserve"> Agrupacion Deportiva Alcorcon "B"</t>
   </si>
   <si>
     <t xml:space="preserve">1998</t>
@@ -1198,7 +1195,7 @@
     <t xml:space="preserve">Alcorcon B</t>
   </si>
   <si>
-    <t xml:space="preserve"> UCAM Murcia Club de Fútbol</t>
+    <t xml:space="preserve"> UCAM Murcia Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">1999</t>
@@ -1219,7 +1216,7 @@
     <t xml:space="preserve">Compos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Extremadura Unión Deportiva</t>
+    <t xml:space="preserve"> Extremadura Union Deportiva</t>
   </si>
   <si>
     <t xml:space="preserve">Almendralejo</t>
@@ -1231,34 +1228,34 @@
     <t xml:space="preserve">Extremadura (U.D.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sociedad Deportiva Logroñés</t>
+    <t xml:space="preserve"> Sociedad Deportiva Logrones</t>
   </si>
   <si>
     <t xml:space="preserve">2009</t>
   </si>
   <si>
-    <t xml:space="preserve">Logroñés (S.D.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tarrasa Olímpica 2010</t>
+    <t xml:space="preserve">Logrones (S.D.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tarrasa Olimpica 2010</t>
   </si>
   <si>
     <t xml:space="preserve">Tarrasa</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarrasa Olímpica</t>
+    <t xml:space="preserve">Tarrasa Olimpica</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Lleida Esportiu</t>
   </si>
   <si>
-    <t xml:space="preserve">Lérida</t>
+    <t xml:space="preserve">Lerida</t>
   </si>
   <si>
     <t xml:space="preserve">2011</t>
   </si>
   <si>
-    <t xml:space="preserve">Lleida Espíritu</t>
+    <t xml:space="preserve">Lleida Espiritu</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Deportivo Badajoz</t>
@@ -1273,7 +1270,7 @@
     <t xml:space="preserve">Badajoz (C.D.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Xerez Deportivo Fútbol Club</t>
+    <t xml:space="preserve"> Xerez Deportivo Futbol Club</t>
   </si>
   <si>
     <t xml:space="preserve">2013</t>
@@ -1282,7 +1279,7 @@
     <t xml:space="preserve">Xerez (F.C.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unionistas de Salamanca Club de Fútbol</t>
+    <t xml:space="preserve"> Unionistas de Salamanca Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Salamanca</t>
@@ -1291,13 +1288,13 @@
     <t xml:space="preserve">Unionistas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mérida Asociación Deportiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida (A.D.)</t>
+    <t xml:space="preserve"> Merida Asociacion Deportiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merida (A.D.)</t>
   </si>
   <si>
     <t xml:space="preserve"> Exiles Foot-Ball Club</t>
@@ -1309,13 +1306,13 @@
     <t xml:space="preserve">Exiles</t>
   </si>
   <si>
-    <t xml:space="preserve"> Río Tinto Foot-Ball Clubn 6</t>
+    <t xml:space="preserve"> Rio Tinto Foot-Ball Clubn 6</t>
   </si>
   <si>
     <t xml:space="preserve">1878</t>
   </si>
   <si>
-    <t xml:space="preserve">Río Tinto</t>
+    <t xml:space="preserve">Rio Tinto</t>
   </si>
   <si>
     <t xml:space="preserve"> Cricket y Foot-Ball Club</t>
@@ -1324,13 +1321,13 @@
     <t xml:space="preserve">1879</t>
   </si>
   <si>
-    <t xml:space="preserve"> Málaga English Clubn 7</t>
+    <t xml:space="preserve"> Malaga English Clubn 7</t>
   </si>
   <si>
     <t xml:space="preserve">1890</t>
   </si>
   <si>
-    <t xml:space="preserve"> Athleta Club de Astilleros del Nervión</t>
+    <t xml:space="preserve"> Athleta Club de Astilleros del Nervion</t>
   </si>
   <si>
     <t xml:space="preserve">1891</t>
@@ -1354,7 +1351,7 @@
     <t xml:space="preserve">Puerto de Las Palmas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asociación de Football de Torelló</t>
+    <t xml:space="preserve"> Asociacion de Football de Torello</t>
   </si>
   <si>
     <t xml:space="preserve"> Veloz Sport Balear</t>
@@ -1384,7 +1381,7 @@
     <t xml:space="preserve"> Bilbao Foot-Ball Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Español de Madrid *</t>
+    <t xml:space="preserve"> Club Espanol de Madrid *</t>
   </si>
   <si>
     <t xml:space="preserve"> Moncloa Foot-Ball Club</t>
@@ -1399,7 +1396,7 @@
     <t xml:space="preserve"> Moderno Foot-Ball Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gijón Sport Club</t>
+    <t xml:space="preserve"> Gijon Sport Club</t>
   </si>
   <si>
     <t xml:space="preserve"> Hispania Foot-Ball Club</t>
@@ -1408,7 +1405,7 @@
     <t xml:space="preserve"> Victoria Foot-Ball Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unión Vizcaína</t>
+    <t xml:space="preserve"> Union Vizcaina</t>
   </si>
   <si>
     <t xml:space="preserve"> Universidad de Deusto Foot-Ball Club</t>
@@ -1432,7 +1429,7 @@
     <t xml:space="preserve"> Vizcaya Foot-Ball Clubn 8</t>
   </si>
   <si>
-    <t xml:space="preserve"> Málaga Foot-Ball Club</t>
+    <t xml:space="preserve"> Malaga Foot-Ball Club</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Foot-Ball Segoviano</t>
@@ -1441,7 +1438,7 @@
     <t xml:space="preserve">Segovia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asociación Asturiana de Foot-Ball</t>
+    <t xml:space="preserve"> Asociacion Asturiana de Foot-Ball</t>
   </si>
   <si>
     <t xml:space="preserve"> Zaragoza Foot-Ball Club</t>
@@ -1453,7 +1450,7 @@
     <t xml:space="preserve"> Vigo Foot-Ball Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Club Coruña</t>
+    <t xml:space="preserve"> Real Club Coruna</t>
   </si>
   <si>
     <t xml:space="preserve"> Juventud Deportiva Gijonesa</t>
@@ -1465,10 +1462,10 @@
     <t xml:space="preserve"> Sporting Club Lucentino</t>
   </si>
   <si>
-    <t xml:space="preserve"> San Sebastián Recreation Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club Gimnástico</t>
+    <t xml:space="preserve"> San Sebastian Recreation Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Gimnastico</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Deportivo Gran Canaria</t>
@@ -1489,37 +1486,37 @@
     <t xml:space="preserve"> Club Sportivo Internacional</t>
   </si>
   <si>
-    <t xml:space="preserve"> Español Foot-Ball Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Español Foot-Ball Club </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tarrasa Fútbol Club</t>
+    <t xml:space="preserve"> Espanol Foot-Ball Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espanol Foot-Ball Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tarrasa Futbol Club</t>
   </si>
   <si>
     <t xml:space="preserve">Terrasa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Sociedad Gimnástica Española</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Xerez Fútbol Club</t>
+    <t xml:space="preserve"> Real Sociedad Gimnastica Espanola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xerez Futbol Club</t>
   </si>
   <si>
     <t xml:space="preserve">Jerez</t>
   </si>
   <si>
-    <t xml:space="preserve"> San Sebastián Foot-Ball Club</t>
+    <t xml:space="preserve"> San Sebastian Foot-Ball Club</t>
   </si>
   <si>
     <t xml:space="preserve"> Alicante Recreation Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gimnástico Foot-Ball Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foot-Ball Club Cabañal</t>
+    <t xml:space="preserve"> Gimnastico Foot-Ball Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foot-Ball Club Cabanal</t>
   </si>
   <si>
     <t xml:space="preserve">1911</t>
@@ -1531,13 +1528,13 @@
     <t xml:space="preserve"> Real Vigo Sporting Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> Foot-Ball Club Malagueño</t>
+    <t xml:space="preserve"> Foot-Ball Club Malagueno</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Deportivo Norte</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unión Sporting Club</t>
+    <t xml:space="preserve"> Union Sporting Club</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Nuevo Fomento Oriental</t>
@@ -1555,31 +1552,31 @@
     <t xml:space="preserve">Iberia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alicante Club de Fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agrupación Deportiva Ferroviaria</t>
+    <t xml:space="preserve"> Alicante Club de Futbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agrupacion Deportiva Ferroviaria</t>
   </si>
   <si>
     <t xml:space="preserve">A.D. Ferroviaria</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Polideportivo Mérida</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club Deportivo Logroño</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Imperio Club de Fútbol</t>
+    <t xml:space="preserve"> Club Polideportivo Merida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Deportivo Logrono</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imperio Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Imperio</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unión Deportiva Salamanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club de Fútbol Villarreal de Educación y Descanso</t>
+    <t xml:space="preserve"> Union Deportiva Salamanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club de Futbol Villarreal de Educacion y Descanso</t>
   </si>
   <si>
     <t xml:space="preserve">Villarreal E y D</t>
@@ -1591,7 +1588,7 @@
     <t xml:space="preserve">Nacional de Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club de Fútbol Extremadura</t>
+    <t xml:space="preserve"> Club de Futbol Extremadura</t>
   </si>
   <si>
     <t xml:space="preserve">Extremadura</t>
@@ -1603,19 +1600,19 @@
     <t xml:space="preserve"> Zaragoza Club Deportivo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Compostela Club de Fútbol</t>
+    <t xml:space="preserve"> Compostela Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Santiago</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Club Deportivo Córdoba</t>
+    <t xml:space="preserve"> Real Club Deportivo Cordoba</t>
   </si>
   <si>
     <t xml:space="preserve"> Castilla Foot-Ball Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Deportivo Málaga</t>
+    <t xml:space="preserve"> Club Deportivo Malaga</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Deportivo Condal</t>
@@ -1624,7 +1621,7 @@
     <t xml:space="preserve">1934</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unió Esportiva Lleida</t>
+    <t xml:space="preserve"> Unio Esportiva Lleida</t>
   </si>
   <si>
     <t xml:space="preserve">1939</t>
@@ -1633,10 +1630,10 @@
     <t xml:space="preserve">Lleida</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Deportivo Logroñés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logroñés</t>
+    <t xml:space="preserve"> Club Deportivo Logrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logrones</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Deportivo Juvenil</t>
@@ -1663,7 +1660,7 @@
     <t xml:space="preserve">Ourense</t>
   </si>
   <si>
-    <t xml:space="preserve"> Real Madrid Club de Fútbol "C"</t>
+    <t xml:space="preserve"> Real Madrid Club de Futbol "C"</t>
   </si>
   <si>
     <t xml:space="preserve">Madrid C</t>
@@ -1675,7 +1672,7 @@
     <t xml:space="preserve">Compostela</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fútbol Club Barcelona "C"</t>
+    <t xml:space="preserve"> Futbol Club Barcelona "C"</t>
   </si>
   <si>
     <t xml:space="preserve">Barcelona C</t>
@@ -1693,25 +1690,25 @@
     <t xml:space="preserve">Ejido</t>
   </si>
   <si>
-    <t xml:space="preserve"> Agrupación Deportiva Almería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almería (A.D.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mérida Unión Deportiva</t>
+    <t xml:space="preserve"> Agrupacion Deportiva Almeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almeria (A.D.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Merida Union Deportiva</t>
   </si>
   <si>
     <t xml:space="preserve">1990</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorca Atlético Club de Fútbol</t>
+    <t xml:space="preserve"> Lorca Atletico Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Lorca</t>
   </si>
   <si>
-    <t xml:space="preserve"> Granada 74 Club de Fútbol</t>
+    <t xml:space="preserve"> Granada 74 Club de Futbol</t>
   </si>
   <si>
     <t xml:space="preserve">Motril</t>
@@ -1726,10 +1723,10 @@
     <t xml:space="preserve"> Real Club Deportivo Oviedo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Club Deportivo Español</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Unión Deportiva</t>
+    <t xml:space="preserve"> Club Deportivo Espanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Union Deportiva</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1828,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1860,6 +1857,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1879,8 +1880,8 @@
   </sheetPr>
   <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104 B237 E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1942,7 +1943,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>1890</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2746,148 +2747,148 @@
         <v>142</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="C56" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>71</v>
@@ -2897,349 +2898,349 @@
     </row>
     <row r="64" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="C64" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="C66" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>145</v>
@@ -3249,1207 +3250,1207 @@
     </row>
     <row r="86" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="E87" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="E97" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="C99" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="E100" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E102" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="E103" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E104" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="C107" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="C109" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E111" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="C112" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E113" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="E115" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="E116" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="C117" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="E118" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="E119" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="C120" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="E120" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="E122" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="E125" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="E126" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C127" s="5" t="s">
+      <c r="E127" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="E128" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="E129" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="C131" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E131" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="E132" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C133" s="5" t="s">
+      <c r="E133" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="E134" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C137" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="E138" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="E139" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="C141" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="C142" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="E142" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="E143" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C144" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="C145" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="C146" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E146" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="E150" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="E153" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="C154" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E154" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E158" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>16</v>
@@ -4458,14 +4459,14 @@
         <v>17</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>16</v>
@@ -4474,14 +4475,14 @@
         <v>19</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>12</v>
@@ -4490,14 +4491,14 @@
         <v>19</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>22</v>
@@ -4506,142 +4507,142 @@
         <v>26</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E166" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>22</v>
@@ -4650,14 +4651,14 @@
         <v>29</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>22</v>
@@ -4666,14 +4667,14 @@
         <v>29</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>22</v>
@@ -4682,14 +4683,14 @@
         <v>29</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>22</v>
@@ -4698,14 +4699,14 @@
         <v>29</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>22</v>
@@ -4714,14 +4715,14 @@
         <v>29</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>22</v>
@@ -4730,14 +4731,14 @@
         <v>29</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>12</v>
@@ -4746,46 +4747,46 @@
         <v>29</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>22</v>
@@ -4794,30 +4795,30 @@
         <v>29</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>145</v>
@@ -4826,30 +4827,30 @@
         <v>29</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>52</v>
@@ -4858,14 +4859,14 @@
         <v>36</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>39</v>
@@ -4874,14 +4875,14 @@
         <v>36</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>33</v>
@@ -4890,14 +4891,14 @@
         <v>36</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>117</v>
@@ -4906,14 +4907,14 @@
         <v>36</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>65</v>
@@ -4922,62 +4923,62 @@
         <v>36</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>22</v>
@@ -4986,30 +4987,30 @@
         <v>40</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>71</v>
@@ -5018,14 +5019,14 @@
         <v>40</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>22</v>
@@ -5034,14 +5035,14 @@
         <v>49</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>22</v>
@@ -5050,14 +5051,14 @@
         <v>49</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>22</v>
@@ -5066,30 +5067,30 @@
         <v>49</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>22</v>
@@ -5098,30 +5099,30 @@
         <v>55</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>65</v>
@@ -5130,14 +5131,14 @@
         <v>63</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>117</v>
@@ -5146,14 +5147,14 @@
         <v>63</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>71</v>
@@ -5162,14 +5163,14 @@
         <v>66</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>71</v>
@@ -5178,78 +5179,78 @@
         <v>55</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C208" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E208" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>93</v>
@@ -5258,14 +5259,14 @@
         <v>85</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>22</v>
@@ -5274,30 +5275,30 @@
         <v>101</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>22</v>
@@ -5306,52 +5307,52 @@
         <v>110</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>117</v>
@@ -5361,487 +5362,487 @@
     </row>
     <row r="218" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="56.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E224" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E226" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>528</v>
-      </c>
       <c r="C229" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C234" s="5" t="s">
+      <c r="E234" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E235" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E235" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>542</v>
-      </c>
       <c r="E238" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="C239" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="E239" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C241" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E241" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="C243" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="E243" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E244" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B245" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="E245" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B246" s="5" t="s">
-        <v>562</v>
-      </c>
       <c r="C246" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="C247" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E247" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>145</v>
@@ -5850,55 +5851,55 @@
         <v>110</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
